--- a/biology/Histoire de la zoologie et de la botanique/Robert_J._Blakemore/Robert_J._Blakemore.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_J._Blakemore/Robert_J._Blakemore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert J. Blakemore, écologue spécialiste australien actuel de la systématique des oligochètes, vers de terre en particulier, notamment pour l'Australie, le Moyen-Orient[1] et l'Orient, dont le Japon[2]. De manière plus générale il travaille aux aspects phylogénétiques et biogéographiques de l'histoire des lumbricidés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert J. Blakemore, écologue spécialiste australien actuel de la systématique des oligochètes, vers de terre en particulier, notamment pour l'Australie, le Moyen-Orient et l'Orient, dont le Japon. De manière plus générale il travaille aux aspects phylogénétiques et biogéographiques de l'histoire des lumbricidés.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>membre du « College of Natural Science » de l'Université Hanyang de Seoul[3]
-membre du « Soil Ecology Group », de l'université nationale de Yokohama[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>membre du « College of Natural Science » de l'Université Hanyang de Seoul
+membre du « Soil Ecology Group », de l'université nationale de Yokohama.</t>
         </is>
       </c>
     </row>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1981-aujourd'hui (avril, 2006)
-Blakemore, R.J., (1981). "Ecology of earthworms under different fertilizer regimes in agriculture." Unpub. BSc. Hons. Thesis, Westminster Uni., 801/1/22: Pp 93.
+          <t>1981-aujourd'hui (avril, 2006)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Blakemore, R.J., (1981). "Ecology of earthworms under different fertilizer regimes in agriculture." Unpub. BSc. Hons. Thesis, Westminster Uni., 801/1/22: Pp 93.
 Blakemore, R.J., (1991). Earthworms and soil productivity. Conservation Tillage. Queensland DPI, Brisbane. 2(4): 4-5.
 Blakemore, R.J., (1992). Improving productivity of brigalow soils through the introduction of earthworms. CSIRO, Division of Tropical Crops and Pastures, Biennial Research Report, 1991-1993. CSIRO Australia. p. 60–63.
 Blakemore, R.J., (1994a). “Earthworms of south-east Queensland and their agronomic potential in brigalow soils.” Unpub. PhD. Thesis, University of Queensland. Pp 605 with the description of 75 species, including 80 figures.
@@ -568,7 +587,7 @@
 Blakemore, R.J., (1997d). First authenticated record of the introduced Lumbricus terrestris in Australia. SBSA Conference Poster Abstracts. http://www.anbg.gov.au/asbs/conferences/1997-adelaide/asbs-agm-1997-abstracts-posters.html
 Blakemore, R.J., (1997e). Opisthogastric earthworms (Megascolecidae: Oligochaeta) and allied forms in north-western Tasmania. Journal of Natural History. 31: 1683-1708.
 Blakemore, R.J., (1997f). Two new genera and some new species of Australian earthworms (Acanthodrilidae, Megascolecidae: Oligochaeta). Journal of Natural History. 31: 1785-1848.
-Yeates, G.W., Spiridonov, S.E. and Blakemore, R.J., (1998). Plesioungella kathleenae gen. n. et sp. n. (Nematoda: Drilonematoidea) from the Australian endemic megascolecid earthworm Fletcherodrilus unicus (Fletcher, 1889). New Zealand Journal of Zoology. 25 (2): 205-212. [1].
+Yeates, G.W., Spiridonov, S.E. and Blakemore, R.J., (1998). Plesioungella kathleenae gen. n. et sp. n. (Nematoda: Drilonematoidea) from the Australian endemic megascolecid earthworm Fletcherodrilus unicus (Fletcher, 1889). New Zealand Journal of Zoology. 25 (2): 205-212. .
 Blakemore, R.J., (1998a). Distribution of oligochaetes and planarians on subantarctic Macquarie Island. Unpublished report to ANARE (Australian Antarctic Division), Hobart, February, 1998.See also : http://gcmd.nasa.gov/records/GCMD_ASAC_2233.html
 Blakemore, R.J., (1998b). Retrovescus, a new genus of opisthogastric earthworm from Tasmania. Invertebrate Taxonomy, 1998. 12: 655-665. http://www.publish.csiro.au/paper/IT97021.htm
 Blakemore, R.J., (1998c). ‘Earthworms’ display and factsheets for New Biodiversity Gallery, Australian Museum, Sydney.
@@ -678,7 +697,7 @@
 R.J. Blakemore (In review). Cosmopolitan earthworms - a global and historical perspective. In: P. Hendrix (ed.) Invasive Earthworms Special Review. Biological Invasions: (in review). Pp. 25.
 R.J. Blakemore, M.T. Ito, N. Kaneko &amp; T. Kawaguchi (submitted). Taxonomic status of the peregrine asian earthworm Pheretima darnleiensis (Fletcher, 1886) (Oligochaeta: Megascolecidae). Systematics &amp; Biodiversity (submitted).
 Robert J. Blakemore, Csaba Csuzdi, Masamichi T. Ito, Nobuhiro Kaneko, Maurizio G. Paoletti, Sergei E. Spiridonov, Tomoko Uchida &amp; Beverley D. Van Praagh (submitted). Megascolex (Promegascolex) mekongianus Cognetti, 1922: its extent, ecology and allocation to Amynthas (Oligochaeta: Megascolecidae). Systematics &amp; Biodiversity (submitted).
-R.J. Blakemore (2005). Whither Octochaetidae – its family status reviewed. Powerpoint presentation 2nd IOTM Cluj-Napoca, Romania. 14-18th September, 2005. [2]
+R.J. Blakemore (2005). Whither Octochaetidae – its family status reviewed. Powerpoint presentation 2nd IOTM Cluj-Napoca, Romania. 14-18th September, 2005. 
 Kaneko, N., Kamitani, T., &amp; Blakemore, R.J. (2005). Soil ecotoxological methods. Oct., 2005 International Ecotoxological Meeting, Yokohama.
 R.J. Blakemore (In press). Whither Octochaetidae – its family status reviewed. Paper submitted. IOTM2 Cluj. Romania. Pp. 26.
 R.J. Blakemore (2005). Diversity of Exotic Earthworms. Ppt presentation. Species biodiversity meeting. Ryukyus University, Okinawa November, 2005.
